--- a/biology/Zoologie/Haplodiplosis_marginata/Haplodiplosis_marginata.xlsx
+++ b/biology/Zoologie/Haplodiplosis_marginata/Haplodiplosis_marginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Haplodiplosis marginata (la cécidomyie des tiges du blé ou cécidomyie équestre) est une espèce d'insectes diptères de la famille des Cecidomyiidae, d'origine européenne.
 Cet insecte est une cécidomyie galligène, inféodée aux plantes de la famille des Poaceae. C'est un ravageur sporadique de certaines céréales cultivées, en particulier le blé, l'orge, le seigle.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon catalogue of Life[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon catalogue of Life :
 Diplosis equestris Wagner, 1871
 Haplodiplosis incerta Rubsaamen, 1926</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Haplodiplosis marginata comprend la quasi-totalité de l'Europe, y compris les îles Britanniques.
 </t>
